--- a/Check_list_Exporer.xlsx
+++ b/Check_list_Exporer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBCB410-A292-48BA-8551-527AC9BC5D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE393217-93B0-43BC-9AB3-8CCCADC7FBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>Проверка</t>
   </si>
@@ -90,12 +90,6 @@
     <t>.doc</t>
   </si>
   <si>
-    <t>.tex</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
     <t>.pdf</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>ASF</t>
   </si>
   <si>
-    <t>FLV</t>
-  </si>
-  <si>
     <t>MKV</t>
   </si>
   <si>
@@ -138,15 +129,6 @@
     <t>MP3</t>
   </si>
   <si>
-    <t>AIFF</t>
-  </si>
-  <si>
-    <t>DSD</t>
-  </si>
-  <si>
-    <t>FLAC</t>
-  </si>
-  <si>
     <t>Новая директория создана</t>
   </si>
   <si>
@@ -169,13 +151,166 @@
   </si>
   <si>
     <t>Музыка:</t>
+  </si>
+  <si>
+    <t>Невозможно создать директорию(E_OBJECTLOCKED ": "data object locked)</t>
+  </si>
+  <si>
+    <t>Директория не создается. Ошибка.</t>
+  </si>
+  <si>
+    <t>Содержимое дериктории скачивается в "Загрузки"</t>
+  </si>
+  <si>
+    <t>Папка создана</t>
+  </si>
+  <si>
+    <t>Тестирование в этом модуле остановленно!!! Т.К. основная функция данного модуля не работает</t>
+  </si>
+  <si>
+    <t>Файл загружается в выбранную директорию</t>
+  </si>
+  <si>
+    <t>Файлы загружаются в выбранную директорию</t>
+  </si>
+  <si>
+    <t>Файл просматривается в оконном режиме</t>
+  </si>
+  <si>
+    <t>Файл скачивается в "Загрузки"</t>
+  </si>
+  <si>
+    <t>Файл скачивается в загрузки</t>
+  </si>
+  <si>
+    <t>Файлы скачиваются в "Загрузки"</t>
+  </si>
+  <si>
+    <t>Файл переименнован</t>
+  </si>
+  <si>
+    <t>Невозможно переименовать (ResultSet not positioned properly, perhaps you need to call next)</t>
+  </si>
+  <si>
+    <t>Файл удален из директори</t>
+  </si>
+  <si>
+    <t>Загрузка одновременно двух и более файлов невозможна</t>
+  </si>
+  <si>
+    <t>Данной функции не существует</t>
+  </si>
+  <si>
+    <t>Удалить два и более файла</t>
+  </si>
+  <si>
+    <t>Файлы удалены из директори</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FS.1.1</t>
+  </si>
+  <si>
+    <t>FS.1.2</t>
+  </si>
+  <si>
+    <t>FS.1.3</t>
+  </si>
+  <si>
+    <t>FS.1.4</t>
+  </si>
+  <si>
+    <t>FS.1.5</t>
+  </si>
+  <si>
+    <t>FS.1.6</t>
+  </si>
+  <si>
+    <t>FS.1.7</t>
+  </si>
+  <si>
+    <t>FS.1.8</t>
+  </si>
+  <si>
+    <t>FS.1.9</t>
+  </si>
+  <si>
+    <t>FS.2.1</t>
+  </si>
+  <si>
+    <t>FS.2.2</t>
+  </si>
+  <si>
+    <t>FS.2.3</t>
+  </si>
+  <si>
+    <t>FS.2.4</t>
+  </si>
+  <si>
+    <t>FS.2.5</t>
+  </si>
+  <si>
+    <t>FS.2.6</t>
+  </si>
+  <si>
+    <t>FS.2.7</t>
+  </si>
+  <si>
+    <t>FS.2.8</t>
+  </si>
+  <si>
+    <t>FS.3.1.1</t>
+  </si>
+  <si>
+    <t>FS.3.1.2</t>
+  </si>
+  <si>
+    <t>FS.3.1.3</t>
+  </si>
+  <si>
+    <t>FS.3.1.4</t>
+  </si>
+  <si>
+    <t>FS.3.1.5</t>
+  </si>
+  <si>
+    <t>FS.3.2.1</t>
+  </si>
+  <si>
+    <t>FS.3.2.2</t>
+  </si>
+  <si>
+    <t>FS.3.2.3</t>
+  </si>
+  <si>
+    <t>FS.3.2.4</t>
+  </si>
+  <si>
+    <t>FS.3.3.1</t>
+  </si>
+  <si>
+    <t>FS.3.3.2</t>
+  </si>
+  <si>
+    <t>FS.3.3.3</t>
+  </si>
+  <si>
+    <t>FS.3.4.1</t>
+  </si>
+  <si>
+    <t>FS.3.4.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +325,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00FF00"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +370,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,11 +417,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -277,6 +450,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,6 +487,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -558,511 +767,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="D38" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check_list_Exporer.xlsx
+++ b/Check_list_Exporer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE393217-93B0-43BC-9AB3-8CCCADC7FBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91ED0D-F39D-484A-A39C-F24C0BB532DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/Check_list_Exporer.xlsx
+++ b/Check_list_Exporer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91ED0D-F39D-484A-A39C-F24C0BB532DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B0CD3-A056-4328-B3D6-0B18C1B82EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Проверка</t>
   </si>
@@ -78,57 +78,6 @@
     <t>Загрузить два и более файла</t>
   </si>
   <si>
-    <t>Формат поддерживания файлов</t>
-  </si>
-  <si>
-    <t>Документы, текст:</t>
-  </si>
-  <si>
-    <t>.txt</t>
-  </si>
-  <si>
-    <t>.doc</t>
-  </si>
-  <si>
-    <t>.pdf</t>
-  </si>
-  <si>
-    <t>.log</t>
-  </si>
-  <si>
-    <t>jpg (jpeg)</t>
-  </si>
-  <si>
-    <t>gif</t>
-  </si>
-  <si>
-    <t>png</t>
-  </si>
-  <si>
-    <t>bmp</t>
-  </si>
-  <si>
-    <t>ASF</t>
-  </si>
-  <si>
-    <t>MKV</t>
-  </si>
-  <si>
-    <t>MP4</t>
-  </si>
-  <si>
-    <t>Фото:</t>
-  </si>
-  <si>
-    <t>Видео:</t>
-  </si>
-  <si>
-    <t>AAC</t>
-  </si>
-  <si>
-    <t>MP3</t>
-  </si>
-  <si>
     <t>Новая директория создана</t>
   </si>
   <si>
@@ -150,9 +99,6 @@
     <t>Директория переименнована</t>
   </si>
   <si>
-    <t>Музыка:</t>
-  </si>
-  <si>
     <t>Невозможно создать директорию(E_OBJECTLOCKED ": "data object locked)</t>
   </si>
   <si>
@@ -207,9 +153,6 @@
     <t>Файлы удалены из директори</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -262,48 +205,6 @@
   </si>
   <si>
     <t>FS.2.8</t>
-  </si>
-  <si>
-    <t>FS.3.1.1</t>
-  </si>
-  <si>
-    <t>FS.3.1.2</t>
-  </si>
-  <si>
-    <t>FS.3.1.3</t>
-  </si>
-  <si>
-    <t>FS.3.1.4</t>
-  </si>
-  <si>
-    <t>FS.3.1.5</t>
-  </si>
-  <si>
-    <t>FS.3.2.1</t>
-  </si>
-  <si>
-    <t>FS.3.2.2</t>
-  </si>
-  <si>
-    <t>FS.3.2.3</t>
-  </si>
-  <si>
-    <t>FS.3.2.4</t>
-  </si>
-  <si>
-    <t>FS.3.3.1</t>
-  </si>
-  <si>
-    <t>FS.3.3.2</t>
-  </si>
-  <si>
-    <t>FS.3.3.3</t>
-  </si>
-  <si>
-    <t>FS.3.4.1</t>
-  </si>
-  <si>
-    <t>FS.3.4.2</t>
   </si>
 </sst>
 </file>
@@ -319,27 +220,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF00FF00"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,12 +267,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -407,21 +302,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -434,52 +318,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,460 +652,282 @@
     <col min="5" max="5" width="60.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="84" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>